--- a/docs/CareConnect-BodyTemperature-Observation-1.xlsx
+++ b/docs/CareConnect-BodyTemperature-Observation-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7719" uniqueCount="706">
   <si>
     <t>Path</t>
   </si>
@@ -591,7 +591,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-CarePlan-1|DeviceRequest|ImmunizationRecommendation|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationRequest-1|NutritionOrder|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ReferralRequest-1 |https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ProcedureRequest-1)
+    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-CarePlan-1|DeviceRequest|ImmunizationRecommendation|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationRequest-1|NutritionOrder|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ReferralRequest-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ProcedureRequest-1)
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
@@ -2056,9 +2056,6 @@
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This value set indicates the allowed vital sign result types. </t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -22844,7 +22841,7 @@
         <v>79</v>
       </c>
       <c r="X175" t="s" s="2">
-        <v>659</v>
+        <v>278</v>
       </c>
       <c r="Y175" t="s" s="2">
         <v>279</v>
@@ -22883,7 +22880,7 @@
         <v>45</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>282</v>
@@ -22900,7 +22897,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23015,7 +23012,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23132,7 +23129,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23251,7 +23248,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23366,7 +23363,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23483,7 +23480,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23602,7 +23599,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23719,7 +23716,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23836,7 +23833,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23953,7 +23950,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24072,7 +24069,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24191,7 +24188,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>387</v>
@@ -24219,13 +24216,13 @@
         <v>388</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L187" t="s" s="2">
         <v>390</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N187" t="s" s="2">
         <v>392</v>
@@ -24277,25 +24274,25 @@
         <v>45</v>
       </c>
       <c r="AE187" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AF187" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG187" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH187" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI187" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ187" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK187" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>399</v>
@@ -24312,7 +24309,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24427,7 +24424,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24544,7 +24541,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24663,7 +24660,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24784,7 +24781,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24901,7 +24898,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25018,7 +25015,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25044,7 +25041,7 @@
         <v>75</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L194" t="s" s="2">
         <v>441</v>
@@ -25137,7 +25134,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25163,13 +25160,13 @@
         <v>142</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>451</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N195" t="s" s="2">
         <v>453</v>
@@ -25200,11 +25197,11 @@
         <v>79</v>
       </c>
       <c r="X195" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="Y195" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="Y195" t="s" s="2">
-        <v>689</v>
-      </c>
       <c r="Z195" t="s" s="2">
         <v>45</v>
       </c>
@@ -25221,7 +25218,7 @@
         <v>45</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>43</v>
@@ -25256,7 +25253,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25371,7 +25368,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25488,7 +25485,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25607,7 +25604,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25722,7 +25719,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25839,7 +25836,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25958,7 +25955,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26075,7 +26072,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26192,7 +26189,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26309,7 +26306,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26428,7 +26425,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26547,7 +26544,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26579,7 +26576,7 @@
         <v>471</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N207" t="s" s="2">
         <v>472</v>
@@ -26610,11 +26607,11 @@
         <v>79</v>
       </c>
       <c r="X207" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y207" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Y207" t="s" s="2">
-        <v>704</v>
-      </c>
       <c r="Z207" t="s" s="2">
         <v>45</v>
       </c>
@@ -26631,7 +26628,7 @@
         <v>45</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>43</v>
@@ -26666,7 +26663,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26692,7 +26689,7 @@
         <v>45</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L208" t="s" s="2">
         <v>572</v>
@@ -26750,7 +26747,7 @@
         <v>45</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>43</v>
